--- a/Labs/Lab06/mark_lab06.xlsx
+++ b/Labs/Lab06/mark_lab06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HOME" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="54">
   <si>
     <t>Tổng điểm cuối</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - chưa nộp</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1226,7 @@
         <v>24</v>
       </c>
       <c r="O8" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",M8,"!A1")),CONCATENATE(INDIRECT("'"&amp;M8&amp;"'!B10"), "/",$F$8))</f>
+        <f t="shared" ref="O8:O16" ca="1" si="0">HYPERLINK(HYPERLINK(CONCATENATE("#",M8,"!A1")),CONCATENATE(INDIRECT("'"&amp;M8&amp;"'!B10"), "/",$F$8))</f>
         <v>85/100</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -1238,14 +1241,14 @@
         <v>2</v>
       </c>
       <c r="M9" s="4" t="str">
-        <f t="shared" ref="M9:M16" si="0">TEXT(L9,"0")</f>
+        <f t="shared" ref="M9:M16" si="1">TEXT(L9,"0")</f>
         <v>2</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="O9" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",M9,"!A1")),CONCATENATE(INDIRECT("'"&amp;M9&amp;"'!B10"), "/",$F$8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35/100</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -1257,15 +1260,15 @@
         <v>3</v>
       </c>
       <c r="M10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O10" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",M10,"!A1")),CONCATENATE(INDIRECT("'"&amp;M10&amp;"'!B10"), "/",$F$8))</f>
-        <v>100/100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0/100</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>17</v>
@@ -1279,14 +1282,14 @@
         <v>4</v>
       </c>
       <c r="M11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",M11,"!A1")),CONCATENATE(INDIRECT("'"&amp;M11&amp;"'!B10"), "/",$F$8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>20/100</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -1298,14 +1301,14 @@
         <v>5</v>
       </c>
       <c r="M12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>28</v>
       </c>
       <c r="O12" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",M12,"!A1")),CONCATENATE(INDIRECT("'"&amp;M12&amp;"'!B10"), "/",$F$8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>60/100</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -1317,15 +1320,15 @@
         <v>6</v>
       </c>
       <c r="M13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O13" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",M13,"!A1")),CONCATENATE(INDIRECT("'"&amp;M13&amp;"'!B10"), "/",$F$8))</f>
-        <v>100/100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0/100</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>20</v>
@@ -1339,14 +1342,14 @@
         <v>7</v>
       </c>
       <c r="M14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="O14" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",M14,"!A1")),CONCATENATE(INDIRECT("'"&amp;M14&amp;"'!B10"), "/",$F$8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100/100</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -1358,14 +1361,14 @@
         <v>8</v>
       </c>
       <c r="M15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="O15" s="19" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",M15,"!A1")),CONCATENATE(INDIRECT("'"&amp;M15&amp;"'!B10"), "/",$F$8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>70/100</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -1377,14 +1380,14 @@
         <v>9</v>
       </c>
       <c r="M16" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O16" s="23" t="str">
-        <f ca="1">HYPERLINK(HYPERLINK(CONCATENATE("#",M16,"!A1")),CONCATENATE(INDIRECT("'"&amp;M16&amp;"'!B10"), "/",$F$8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>70/100</v>
       </c>
     </row>
@@ -1854,7 +1857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1902,12 +1907,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>20</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="49" t="s">
+        <v>53</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1915,12 +1922,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>20</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="50"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1928,36 +1935,36 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>20</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>20</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>20</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
@@ -1965,7 +1972,7 @@
       </c>
       <c r="B10" s="39">
         <f>SUM(B5:B9)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" s="40">
         <f>SUM(C5:C9)</f>
@@ -1973,8 +1980,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2256,7 +2264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2304,12 +2314,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>20</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="49" t="s">
+        <v>53</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2317,12 +2329,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>20</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="50"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2330,36 +2342,36 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>20</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>20</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>20</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
@@ -2367,7 +2379,7 @@
       </c>
       <c r="B10" s="39">
         <f>SUM(B5:B9)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" s="40">
         <f>SUM(C5:C9)</f>
@@ -2375,8 +2387,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
